--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.42263399672969</v>
+        <v>8.348115333333334</v>
       </c>
       <c r="H2">
-        <v>7.42263399672969</v>
+        <v>25.044346</v>
       </c>
       <c r="I2">
-        <v>0.1853068590245355</v>
+        <v>0.1946169345259831</v>
       </c>
       <c r="J2">
-        <v>0.1853068590245355</v>
+        <v>0.1946169345259831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>182.92559906448</v>
+        <v>7.990118666666667</v>
       </c>
       <c r="N2">
-        <v>182.92559906448</v>
+        <v>23.970356</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03913739363311985</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03913739363311985</v>
       </c>
       <c r="Q2">
-        <v>1357.789770488154</v>
+        <v>66.7024321563529</v>
       </c>
       <c r="R2">
-        <v>1357.789770488154</v>
+        <v>600.3218894071762</v>
       </c>
       <c r="S2">
-        <v>0.1853068590245355</v>
+        <v>0.007616799574214512</v>
       </c>
       <c r="T2">
-        <v>0.1853068590245355</v>
+        <v>0.007616799574214512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.08067670892835</v>
+        <v>8.348115333333334</v>
       </c>
       <c r="H3">
-        <v>6.08067670892835</v>
+        <v>25.044346</v>
       </c>
       <c r="I3">
-        <v>0.1518047504661568</v>
+        <v>0.1946169345259831</v>
       </c>
       <c r="J3">
-        <v>0.1518047504661568</v>
+        <v>0.1946169345259831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>182.92559906448</v>
+        <v>1.226213666666667</v>
       </c>
       <c r="N3">
-        <v>182.92559906448</v>
+        <v>3.678641</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.006006269612847369</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.006006269612847369</v>
       </c>
       <c r="Q3">
-        <v>1112.311429698149</v>
+        <v>10.23657311264289</v>
       </c>
       <c r="R3">
-        <v>1112.311429698149</v>
+        <v>92.12915801378601</v>
       </c>
       <c r="S3">
-        <v>0.1518047504661568</v>
+        <v>0.001168921779988918</v>
       </c>
       <c r="T3">
-        <v>0.1518047504661568</v>
+        <v>0.001168921779988918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.53711882332069</v>
+        <v>8.348115333333334</v>
       </c>
       <c r="H4">
-        <v>3.53711882332069</v>
+        <v>25.044346</v>
       </c>
       <c r="I4">
-        <v>0.08830455326706145</v>
+        <v>0.1946169345259831</v>
       </c>
       <c r="J4">
-        <v>0.08830455326706145</v>
+        <v>0.1946169345259831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>182.92559906448</v>
+        <v>194.9392826666667</v>
       </c>
       <c r="N4">
-        <v>182.92559906448</v>
+        <v>584.817848</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9548563367540328</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9548563367540328</v>
       </c>
       <c r="Q4">
-        <v>647.0295797181858</v>
+        <v>1627.375614698601</v>
       </c>
       <c r="R4">
-        <v>647.0295797181858</v>
+        <v>14646.38053228741</v>
       </c>
       <c r="S4">
-        <v>0.08830455326706145</v>
+        <v>0.1858312131717797</v>
       </c>
       <c r="T4">
-        <v>0.08830455326706145</v>
+        <v>0.1858312131717797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.29739105261546</v>
+        <v>6.181162333333333</v>
       </c>
       <c r="H5">
-        <v>7.29739105261546</v>
+        <v>18.543487</v>
       </c>
       <c r="I5">
-        <v>0.1821801554043626</v>
+        <v>0.144099454438236</v>
       </c>
       <c r="J5">
-        <v>0.1821801554043626</v>
+        <v>0.144099454438236</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>182.92559906448</v>
+        <v>7.990118666666667</v>
       </c>
       <c r="N5">
-        <v>182.92559906448</v>
+        <v>23.970356</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.03913739363311985</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.03913739363311985</v>
       </c>
       <c r="Q5">
-        <v>1334.879629907459</v>
+        <v>49.38822054126356</v>
       </c>
       <c r="R5">
-        <v>1334.879629907459</v>
+        <v>444.493984871372</v>
       </c>
       <c r="S5">
-        <v>0.1821801554043626</v>
+        <v>0.005639677070667061</v>
       </c>
       <c r="T5">
-        <v>0.1821801554043626</v>
+        <v>0.005639677070667061</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.93759308268919</v>
+        <v>6.181162333333333</v>
       </c>
       <c r="H6">
-        <v>7.93759308268919</v>
+        <v>18.543487</v>
       </c>
       <c r="I6">
-        <v>0.1981628681969323</v>
+        <v>0.144099454438236</v>
       </c>
       <c r="J6">
-        <v>0.1981628681969323</v>
+        <v>0.144099454438236</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>182.92559906448</v>
+        <v>1.226213666666667</v>
       </c>
       <c r="N6">
-        <v>182.92559906448</v>
+        <v>3.678641</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.006006269612847369</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.006006269612847369</v>
       </c>
       <c r="Q6">
-        <v>1451.988969780993</v>
+        <v>7.579425729018554</v>
       </c>
       <c r="R6">
-        <v>1451.988969780993</v>
+        <v>68.21483156116699</v>
       </c>
       <c r="S6">
-        <v>0.1981628681969323</v>
+        <v>0.0008655001744202607</v>
       </c>
       <c r="T6">
-        <v>0.1981628681969323</v>
+        <v>0.0008655001744202607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,796 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.7804916368091</v>
+        <v>6.181162333333333</v>
       </c>
       <c r="H7">
-        <v>7.7804916368091</v>
+        <v>18.543487</v>
       </c>
       <c r="I7">
-        <v>0.1942408136409514</v>
+        <v>0.144099454438236</v>
       </c>
       <c r="J7">
-        <v>0.1942408136409514</v>
+        <v>0.144099454438236</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>182.92559906448</v>
+        <v>194.9392826666667</v>
       </c>
       <c r="N7">
-        <v>182.92559906448</v>
+        <v>584.817848</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.9548563367540328</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9548563367540328</v>
       </c>
       <c r="Q7">
-        <v>1423.251093679481</v>
+        <v>1204.95135130622</v>
       </c>
       <c r="R7">
-        <v>1423.251093679481</v>
+        <v>10844.56216175598</v>
       </c>
       <c r="S7">
-        <v>0.1942408136409514</v>
+        <v>0.1375942771931487</v>
       </c>
       <c r="T7">
-        <v>0.1942408136409514</v>
+        <v>0.1375942771931487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.974084666666667</v>
+      </c>
+      <c r="H8">
+        <v>11.922254</v>
+      </c>
+      <c r="I8">
+        <v>0.09264656086927323</v>
+      </c>
+      <c r="J8">
+        <v>0.09264656086927324</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>7.990118666666667</v>
+      </c>
+      <c r="N8">
+        <v>23.970356</v>
+      </c>
+      <c r="O8">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="P8">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="Q8">
+        <v>31.75340807804712</v>
+      </c>
+      <c r="R8">
+        <v>285.7806727024241</v>
+      </c>
+      <c r="S8">
+        <v>0.003625944921495544</v>
+      </c>
+      <c r="T8">
+        <v>0.003625944921495545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.974084666666667</v>
+      </c>
+      <c r="H9">
+        <v>11.922254</v>
+      </c>
+      <c r="I9">
+        <v>0.09264656086927323</v>
+      </c>
+      <c r="J9">
+        <v>0.09264656086927324</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.226213666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.678641</v>
+      </c>
+      <c r="O9">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="P9">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="Q9">
+        <v>4.873076930757111</v>
+      </c>
+      <c r="R9">
+        <v>43.857692376814</v>
+      </c>
+      <c r="S9">
+        <v>0.0005564602232839299</v>
+      </c>
+      <c r="T9">
+        <v>0.00055646022328393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.974084666666667</v>
+      </c>
+      <c r="H10">
+        <v>11.922254</v>
+      </c>
+      <c r="I10">
+        <v>0.09264656086927323</v>
+      </c>
+      <c r="J10">
+        <v>0.09264656086927324</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>194.9392826666667</v>
+      </c>
+      <c r="N10">
+        <v>584.817848</v>
+      </c>
+      <c r="O10">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="P10">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="Q10">
+        <v>774.7052141765992</v>
+      </c>
+      <c r="R10">
+        <v>6972.346927589393</v>
+      </c>
+      <c r="S10">
+        <v>0.08846415572449376</v>
+      </c>
+      <c r="T10">
+        <v>0.08846415572449377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.300787</v>
+      </c>
+      <c r="H11">
+        <v>21.902361</v>
+      </c>
+      <c r="I11">
+        <v>0.1702009050945648</v>
+      </c>
+      <c r="J11">
+        <v>0.1702009050945648</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>7.990118666666667</v>
+      </c>
+      <c r="N11">
+        <v>23.970356</v>
+      </c>
+      <c r="O11">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="P11">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="Q11">
+        <v>58.33415449005734</v>
+      </c>
+      <c r="R11">
+        <v>525.007390410516</v>
+      </c>
+      <c r="S11">
+        <v>0.006661219819399257</v>
+      </c>
+      <c r="T11">
+        <v>0.006661219819399257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.300787</v>
+      </c>
+      <c r="H12">
+        <v>21.902361</v>
+      </c>
+      <c r="I12">
+        <v>0.1702009050945648</v>
+      </c>
+      <c r="J12">
+        <v>0.1702009050945648</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.226213666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.678641</v>
+      </c>
+      <c r="O12">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="P12">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="Q12">
+        <v>8.952324796822332</v>
+      </c>
+      <c r="R12">
+        <v>80.57092317140099</v>
+      </c>
+      <c r="S12">
+        <v>0.001022272524348604</v>
+      </c>
+      <c r="T12">
+        <v>0.001022272524348604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.300787</v>
+      </c>
+      <c r="H13">
+        <v>21.902361</v>
+      </c>
+      <c r="I13">
+        <v>0.1702009050945648</v>
+      </c>
+      <c r="J13">
+        <v>0.1702009050945648</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>194.9392826666667</v>
+      </c>
+      <c r="N13">
+        <v>584.817848</v>
+      </c>
+      <c r="O13">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="P13">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="Q13">
+        <v>1423.210180682125</v>
+      </c>
+      <c r="R13">
+        <v>12808.89162613913</v>
+      </c>
+      <c r="S13">
+        <v>0.162517412750817</v>
+      </c>
+      <c r="T13">
+        <v>0.162517412750817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.957074333333334</v>
+      </c>
+      <c r="H14">
+        <v>23.871223</v>
+      </c>
+      <c r="I14">
+        <v>0.1855007211466469</v>
+      </c>
+      <c r="J14">
+        <v>0.1855007211466469</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>7.990118666666667</v>
+      </c>
+      <c r="N14">
+        <v>23.970356</v>
+      </c>
+      <c r="O14">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="P14">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="Q14">
+        <v>63.5779681628209</v>
+      </c>
+      <c r="R14">
+        <v>572.201713465388</v>
+      </c>
+      <c r="S14">
+        <v>0.007260014742743917</v>
+      </c>
+      <c r="T14">
+        <v>0.007260014742743917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.957074333333334</v>
+      </c>
+      <c r="H15">
+        <v>23.871223</v>
+      </c>
+      <c r="I15">
+        <v>0.1855007211466469</v>
+      </c>
+      <c r="J15">
+        <v>0.1855007211466469</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.226213666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.678641</v>
+      </c>
+      <c r="O15">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="P15">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="Q15">
+        <v>9.757073294215889</v>
+      </c>
+      <c r="R15">
+        <v>87.813659647943</v>
+      </c>
+      <c r="S15">
+        <v>0.001114167344584379</v>
+      </c>
+      <c r="T15">
+        <v>0.001114167344584379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.957074333333334</v>
+      </c>
+      <c r="H16">
+        <v>23.871223</v>
+      </c>
+      <c r="I16">
+        <v>0.1855007211466469</v>
+      </c>
+      <c r="J16">
+        <v>0.1855007211466469</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>194.9392826666667</v>
+      </c>
+      <c r="N16">
+        <v>584.817848</v>
+      </c>
+      <c r="O16">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="P16">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="Q16">
+        <v>1551.146362665345</v>
+      </c>
+      <c r="R16">
+        <v>13960.3172639881</v>
+      </c>
+      <c r="S16">
+        <v>0.1771265390593186</v>
+      </c>
+      <c r="T16">
+        <v>0.1771265390593186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.133889000000002</v>
+      </c>
+      <c r="H17">
+        <v>27.401667</v>
+      </c>
+      <c r="I17">
+        <v>0.212935423925296</v>
+      </c>
+      <c r="J17">
+        <v>0.212935423925296</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>7.990118666666667</v>
+      </c>
+      <c r="N17">
+        <v>23.970356</v>
+      </c>
+      <c r="O17">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="P17">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="Q17">
+        <v>72.98085699816136</v>
+      </c>
+      <c r="R17">
+        <v>656.8277129834521</v>
+      </c>
+      <c r="S17">
+        <v>0.008333737504599556</v>
+      </c>
+      <c r="T17">
+        <v>0.008333737504599556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>9.133889000000002</v>
+      </c>
+      <c r="H18">
+        <v>27.401667</v>
+      </c>
+      <c r="I18">
+        <v>0.212935423925296</v>
+      </c>
+      <c r="J18">
+        <v>0.212935423925296</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.226213666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.678641</v>
+      </c>
+      <c r="O18">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="P18">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="Q18">
+        <v>11.20009952161633</v>
+      </c>
+      <c r="R18">
+        <v>100.800895694547</v>
+      </c>
+      <c r="S18">
+        <v>0.001278947566221278</v>
+      </c>
+      <c r="T18">
+        <v>0.001278947566221278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>9.133889000000002</v>
+      </c>
+      <c r="H19">
+        <v>27.401667</v>
+      </c>
+      <c r="I19">
+        <v>0.212935423925296</v>
+      </c>
+      <c r="J19">
+        <v>0.212935423925296</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>194.9392826666667</v>
+      </c>
+      <c r="N19">
+        <v>584.817848</v>
+      </c>
+      <c r="O19">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="P19">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="Q19">
+        <v>1780.553769616958</v>
+      </c>
+      <c r="R19">
+        <v>16024.98392655262</v>
+      </c>
+      <c r="S19">
+        <v>0.2033227388544752</v>
+      </c>
+      <c r="T19">
+        <v>0.2033227388544752</v>
       </c>
     </row>
   </sheetData>
